--- a/data/Result.xlsx
+++ b/data/Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobbaisley/Documents/Known_Unknowns/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobbaisley/Desktop/Known_Unknowns/Known_Unknowns/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="187">
   <si>
     <t>Classification</t>
   </si>
@@ -1090,6 +1090,9 @@
 disabilities.html
 </t>
   </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
 </sst>
 </file>
 
@@ -1408,11 +1411,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3221,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
